--- a/ch7/sample1.xlsx
+++ b/ch7/sample1.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="test" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Test" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,14 +413,335 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B1" t="n">
+        <v>55</v>
+      </c>
+      <c r="C1" t="n">
+        <v>23</v>
+      </c>
+      <c r="D1" t="n">
+        <v>78</v>
+      </c>
+      <c r="E1" t="n">
+        <v>72</v>
+      </c>
+      <c r="F1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G1" t="n">
+        <v>20</v>
+      </c>
+      <c r="H1" t="n">
+        <v>94</v>
+      </c>
+      <c r="I1" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B2" t="n">
+        <v>12</v>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>38</v>
+      </c>
+      <c r="E2" t="n">
+        <v>71</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>30</v>
+      </c>
+      <c r="H2" t="n">
+        <v>28</v>
+      </c>
+      <c r="I2" t="n">
+        <v>73</v>
+      </c>
+      <c r="J2" t="n">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B3" t="n">
+        <v>62</v>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>21</v>
+      </c>
+      <c r="E3" t="n">
+        <v>32</v>
+      </c>
+      <c r="F3" t="n">
+        <v>47</v>
+      </c>
+      <c r="G3" t="n">
+        <v>23</v>
+      </c>
+      <c r="H3" t="n">
+        <v>64</v>
+      </c>
+      <c r="I3" t="n">
+        <v>82</v>
+      </c>
+      <c r="J3" t="n">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>23</v>
+      </c>
+      <c r="B4" t="n">
+        <v>93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>86</v>
+      </c>
+      <c r="D4" t="n">
+        <v>56</v>
+      </c>
+      <c r="E4" t="n">
+        <v>15</v>
+      </c>
+      <c r="F4" t="n">
+        <v>72</v>
+      </c>
+      <c r="G4" t="n">
+        <v>61</v>
+      </c>
+      <c r="H4" t="n">
+        <v>90</v>
+      </c>
+      <c r="I4" t="n">
+        <v>42</v>
+      </c>
+      <c r="J4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>74</v>
+      </c>
+      <c r="B5" t="n">
+        <v>25</v>
+      </c>
+      <c r="C5" t="n">
+        <v>9</v>
+      </c>
+      <c r="D5" t="n">
+        <v>54</v>
+      </c>
+      <c r="E5" t="n">
+        <v>98</v>
+      </c>
+      <c r="F5" t="n">
+        <v>35</v>
+      </c>
+      <c r="G5" t="n">
+        <v>35</v>
+      </c>
+      <c r="H5" t="n">
+        <v>84</v>
+      </c>
+      <c r="I5" t="n">
+        <v>23</v>
+      </c>
+      <c r="J5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>43</v>
+      </c>
+      <c r="B6" t="n">
+        <v>98</v>
+      </c>
+      <c r="C6" t="n">
+        <v>78</v>
+      </c>
+      <c r="D6" t="n">
+        <v>67</v>
+      </c>
+      <c r="E6" t="n">
+        <v>76</v>
+      </c>
+      <c r="F6" t="n">
+        <v>75</v>
+      </c>
+      <c r="G6" t="n">
+        <v>61</v>
+      </c>
+      <c r="H6" t="n">
+        <v>95</v>
+      </c>
+      <c r="I6" t="n">
+        <v>7</v>
+      </c>
+      <c r="J6" t="n">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>11</v>
+      </c>
+      <c r="B7" t="n">
+        <v>35</v>
+      </c>
+      <c r="C7" t="n">
+        <v>37</v>
+      </c>
+      <c r="D7" t="n">
+        <v>41</v>
+      </c>
+      <c r="E7" t="n">
+        <v>66</v>
+      </c>
+      <c r="F7" t="n">
+        <v>26</v>
+      </c>
+      <c r="G7" t="n">
+        <v>62</v>
+      </c>
+      <c r="H7" t="n">
+        <v>52</v>
+      </c>
+      <c r="I7" t="n">
+        <v>99</v>
+      </c>
+      <c r="J7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>72</v>
+      </c>
+      <c r="B8" t="n">
+        <v>88</v>
+      </c>
+      <c r="C8" t="n">
+        <v>32</v>
+      </c>
+      <c r="D8" t="n">
+        <v>75</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>68</v>
+      </c>
+      <c r="G8" t="n">
+        <v>30</v>
+      </c>
+      <c r="H8" t="n">
+        <v>47</v>
+      </c>
+      <c r="I8" t="n">
+        <v>86</v>
+      </c>
+      <c r="J8" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>20</v>
+      </c>
+      <c r="B9" t="n">
+        <v>31</v>
+      </c>
+      <c r="C9" t="n">
+        <v>81</v>
+      </c>
+      <c r="D9" t="n">
+        <v>77</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>99</v>
+      </c>
+      <c r="G9" t="n">
+        <v>7</v>
+      </c>
+      <c r="H9" t="n">
+        <v>64</v>
+      </c>
+      <c r="I9" t="n">
+        <v>89</v>
+      </c>
+      <c r="J9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>96</v>
+      </c>
+      <c r="C10" t="n">
+        <v>95</v>
+      </c>
+      <c r="D10" t="n">
+        <v>10</v>
+      </c>
+      <c r="E10" t="n">
+        <v>61</v>
+      </c>
+      <c r="F10" t="n">
+        <v>15</v>
+      </c>
+      <c r="G10" t="n">
+        <v>89</v>
+      </c>
+      <c r="H10" t="n">
+        <v>85</v>
+      </c>
+      <c r="I10" t="n">
+        <v>48</v>
+      </c>
+      <c r="J10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>